--- a/results/FrequencyTables/27341108_gRNA-6.xlsx
+++ b/results/FrequencyTables/27341108_gRNA-6.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.11</v>
+        <v>0.134428678117998</v>
       </c>
       <c r="C2">
-        <v>0.07</v>
+        <v>0.115758028379388</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0231516056758775</v>
       </c>
       <c r="E2">
-        <v>0.99</v>
+        <v>0.933532486930545</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.094100074682599</v>
       </c>
       <c r="G2">
-        <v>0.89</v>
+        <v>0.852875280059746</v>
       </c>
       <c r="H2">
-        <v>0.06</v>
+        <v>0.0955937266616878</v>
       </c>
       <c r="I2">
-        <v>0.07</v>
+        <v>0.075429424943988</v>
       </c>
       <c r="J2">
-        <v>0.03</v>
+        <v>0.0365944734876774</v>
       </c>
       <c r="K2">
-        <v>0.95</v>
+        <v>0.916355489171023</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.0507841672890217</v>
       </c>
       <c r="M2">
-        <v>0.17</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00149365197908887</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.0082150858849888</v>
       </c>
       <c r="P2">
-        <v>0.01</v>
+        <v>0.0164301717699776</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000746825989544436</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.00522778192681105</v>
       </c>
       <c r="S2">
-        <v>0.98</v>
+        <v>0.971620612397311</v>
       </c>
       <c r="T2">
-        <v>0.02</v>
+        <v>0.00522778192681105</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.985810306198656</v>
       </c>
       <c r="V2">
-        <v>0.93</v>
+        <v>0.879761015683346</v>
       </c>
       <c r="W2">
-        <v>0.02</v>
+        <v>0.0216579536967886</v>
       </c>
       <c r="X2">
-        <v>0.02</v>
+        <v>0.0231516056758775</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.82</v>
+        <v>0.739357729648992</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>0.0149365197908887</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.017176997759522</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0156833457804332</v>
       </c>
       <c r="F3">
-        <v>0.84</v>
+        <v>0.847647498132935</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0.123973114264376</v>
       </c>
       <c r="H3">
-        <v>0.09</v>
+        <v>0.137415982076176</v>
       </c>
       <c r="I3">
-        <v>0.88</v>
+        <v>0.80806572068708</v>
       </c>
       <c r="J3">
-        <v>0.06</v>
+        <v>0.112023898431665</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.0164301717699776</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00149365197908887</v>
       </c>
       <c r="M3">
-        <v>0.79</v>
+        <v>0.822255414488424</v>
       </c>
       <c r="N3">
-        <v>0.11</v>
+        <v>0.0201643017176998</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.00448095593726662</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.000746825989544436</v>
       </c>
       <c r="Q3">
-        <v>0.98</v>
+        <v>0.974607916355489</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.00448095593726662</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000746825989544436</v>
       </c>
       <c r="T3">
-        <v>0.97</v>
+        <v>0.982823002240478</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.011949215832711</v>
       </c>
       <c r="V3">
-        <v>0.06</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="W3">
-        <v>0.06</v>
+        <v>0.094100074682599</v>
       </c>
       <c r="X3">
-        <v>0.06</v>
+        <v>0.104555638536221</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07</v>
+        <v>0.125466766243465</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00448095593726662</v>
       </c>
       <c r="D4">
-        <v>0.98</v>
+        <v>0.943241224794623</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>0.0470500373412995</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.00896191187453323</v>
       </c>
       <c r="G4">
-        <v>0.01</v>
+        <v>0.00597460791635549</v>
       </c>
       <c r="H4">
-        <v>0.01</v>
+        <v>0.0224047796863331</v>
       </c>
       <c r="I4">
-        <v>0.01</v>
+        <v>0.0179238237490665</v>
       </c>
       <c r="J4">
-        <v>0.89</v>
+        <v>0.839432412247946</v>
       </c>
       <c r="K4">
-        <v>0.01</v>
+        <v>0.0253920836445108</v>
       </c>
       <c r="L4">
-        <v>0.99</v>
+        <v>0.922330097087379</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.0156833457804332</v>
       </c>
       <c r="N4">
-        <v>0.01</v>
+        <v>0.0343539955190441</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.00373412994772218</v>
       </c>
       <c r="P4">
-        <v>0.38</v>
+        <v>0.29798356982823</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000746825989544436</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.000746825989544436</v>
       </c>
       <c r="S4">
-        <v>0.02</v>
+        <v>0.0261389096340553</v>
       </c>
       <c r="T4">
-        <v>0.01</v>
+        <v>0.00373412994772218</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00224047796863331</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.0164301717699776</v>
       </c>
       <c r="W4">
-        <v>0.91</v>
+        <v>0.881254667662435</v>
       </c>
       <c r="X4">
-        <v>0.92</v>
+        <v>0.867811799850635</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.000746825989544436</v>
       </c>
       <c r="C5">
-        <v>0.92</v>
+        <v>0.864824495892457</v>
       </c>
       <c r="D5">
-        <v>0.02</v>
+        <v>0.0164301717699776</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00373412994772218</v>
       </c>
       <c r="F5">
-        <v>0.09</v>
+        <v>0.0492905153099328</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.017176997759522</v>
       </c>
       <c r="H5">
-        <v>0.84</v>
+        <v>0.744585511575803</v>
       </c>
       <c r="I5">
-        <v>0.04</v>
+        <v>0.0985810306198656</v>
       </c>
       <c r="J5">
-        <v>0.02</v>
+        <v>0.011949215832711</v>
       </c>
       <c r="K5">
-        <v>0.03</v>
+        <v>0.0418222554144884</v>
       </c>
       <c r="L5">
-        <v>0.01</v>
+        <v>0.0253920836445108</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.0649738610903659</v>
       </c>
       <c r="N5">
-        <v>0.88</v>
+        <v>0.943988050784167</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.983569828230022</v>
       </c>
       <c r="P5">
-        <v>0.61</v>
+        <v>0.684839432412248</v>
       </c>
       <c r="Q5">
-        <v>0.02</v>
+        <v>0.023898431665422</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>0.989544436146378</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00149365197908887</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.0082150858849888</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.01</v>
+        <v>0.00672143390589993</v>
       </c>
       <c r="W5">
-        <v>0.01</v>
+        <v>0.00224047796863331</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00448095593726662</v>
       </c>
     </row>
   </sheetData>
